--- a/黑色/铁矿/eta/日均铁水产量超季节性3年_合并数据.xlsx
+++ b/黑色/铁矿/eta/日均铁水产量超季节性3年_合并数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2.9</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>2.23</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>3.54</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>3.53</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>3.73</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>3.89</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>3.81</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>3.64</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>3.53</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>3.57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>3.54</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>3.55</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>3.65</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>3.33</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>3.32</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>3.31</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>3.28</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>3.36</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>3.29</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>3.31</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>3.25</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>3.07</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>3.62</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>3.08</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>2.99</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>2.75</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>2.99</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>2.63</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>2.36</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>2.41</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>2.45</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>2.56</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>2.73</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>1.46</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>1.13</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>0.54</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>0.47</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="44">
